--- a/predict_template.xlsx
+++ b/predict_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>sortby</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>jamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,8 +97,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -119,7 +125,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -131,6 +137,7 @@
     <cellStyle name="已瀏覽過的超連結" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -141,6 +148,7 @@
     <cellStyle name="超連結" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="21" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -469,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,1349 +498,1856 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="2:3">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="2:3">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:3">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="2:3">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="2:3">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="2:3">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:3">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="2:3">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="2:3">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:3">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="2:3">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="2:3">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="2:3">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:3">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:3">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="2:3">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="2:3">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:3">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="2:3">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="2:3">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="2:3">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="2:3">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="2:3">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="2:3">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="2:3">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="2:3">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="2:3">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="2:3">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="2:3">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:3">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="2:3">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
       <c r="B68">
         <v>2</v>
       </c>
       <c r="C68">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="2:3">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="2:3">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="2:3">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="2:3">
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="2:3">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
       <c r="B73">
         <v>2</v>
       </c>
       <c r="C73">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="2:3">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:3">
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:3">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="2:3">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="2:3">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="2:3">
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="2:3">
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="2:3">
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
       <c r="B81">
         <v>3</v>
       </c>
       <c r="C81">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="2:3">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:3">
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="2:3">
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="2:3">
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="2:3">
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="2:3">
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
       <c r="B87">
         <v>3</v>
       </c>
       <c r="C87">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="2:3">
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="2:3">
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="2:3">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="2:3">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
       <c r="B91">
         <v>3</v>
       </c>
       <c r="C91">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="2:3">
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="2:3">
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93">
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="2:3">
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
       <c r="B94">
         <v>3</v>
       </c>
       <c r="C94">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="2:3">
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
       <c r="B95">
         <v>3</v>
       </c>
       <c r="C95">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="2:3">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
       <c r="B96">
         <v>3</v>
       </c>
       <c r="C96">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="2:3">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
       <c r="B97">
         <v>3</v>
       </c>
       <c r="C97">
         <v>23</v>
       </c>
-    </row>
-    <row r="98" spans="2:3">
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
       <c r="B98">
         <v>4</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:3">
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
       <c r="B99">
         <v>4</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="2:3">
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
       <c r="B100">
         <v>4</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="2:3">
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
       <c r="B101">
         <v>4</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:3">
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
       <c r="B102">
         <v>4</v>
       </c>
       <c r="C102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="2:3">
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
       <c r="B103">
         <v>4</v>
       </c>
       <c r="C103">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="2:3">
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="2:3">
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
       <c r="B105">
         <v>4</v>
       </c>
       <c r="C105">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="2:3">
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
       <c r="B106">
         <v>4</v>
       </c>
       <c r="C106">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="2:3">
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
       <c r="B107">
         <v>4</v>
       </c>
       <c r="C107">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="2:3">
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
       <c r="B108">
         <v>4</v>
       </c>
       <c r="C108">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="2:3">
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
       <c r="B109">
         <v>4</v>
       </c>
       <c r="C109">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="2:3">
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="2:3">
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
       <c r="B111">
         <v>4</v>
       </c>
       <c r="C111">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="2:3">
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112">
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="2:3">
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
       <c r="B113">
         <v>4</v>
       </c>
       <c r="C113">
         <v>15</v>
       </c>
-    </row>
-    <row r="114" spans="2:3">
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
       <c r="B114">
         <v>4</v>
       </c>
       <c r="C114">
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="2:3">
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
       <c r="B115">
         <v>4</v>
       </c>
       <c r="C115">
         <v>17</v>
       </c>
-    </row>
-    <row r="116" spans="2:3">
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
       <c r="B116">
         <v>4</v>
       </c>
       <c r="C116">
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="2:3">
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
       <c r="B117">
         <v>4</v>
       </c>
       <c r="C117">
         <v>19</v>
       </c>
-    </row>
-    <row r="118" spans="2:3">
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
       <c r="B118">
         <v>4</v>
       </c>
       <c r="C118">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="2:3">
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
       <c r="B119">
         <v>4</v>
       </c>
       <c r="C119">
         <v>21</v>
       </c>
-    </row>
-    <row r="120" spans="2:3">
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
       <c r="B120">
         <v>4</v>
       </c>
       <c r="C120">
         <v>22</v>
       </c>
-    </row>
-    <row r="121" spans="2:3">
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
       <c r="B121">
         <v>4</v>
       </c>
       <c r="C121">
         <v>23</v>
       </c>
-    </row>
-    <row r="122" spans="2:3">
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
       <c r="B122">
         <v>5</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:3">
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
       <c r="B123">
         <v>5</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="2:3">
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
       <c r="B124">
         <v>5</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="2:3">
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
       <c r="B125">
         <v>5</v>
       </c>
       <c r="C125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="2:3">
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
       <c r="B126">
         <v>5</v>
       </c>
       <c r="C126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="2:3">
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
       <c r="B127">
         <v>5</v>
       </c>
       <c r="C127">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="2:3">
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
       <c r="B128">
         <v>5</v>
       </c>
       <c r="C128">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="2:3">
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
       <c r="B129">
         <v>5</v>
       </c>
       <c r="C129">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="2:3">
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
       <c r="B130">
         <v>5</v>
       </c>
       <c r="C130">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="2:3">
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
       <c r="B131">
         <v>5</v>
       </c>
       <c r="C131">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="2:3">
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
       <c r="B132">
         <v>5</v>
       </c>
       <c r="C132">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="2:3">
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
       <c r="B133">
         <v>5</v>
       </c>
       <c r="C133">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="2:3">
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
       <c r="B134">
         <v>5</v>
       </c>
       <c r="C134">
         <v>12</v>
       </c>
-    </row>
-    <row r="135" spans="2:3">
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="2:3">
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
       <c r="B136">
         <v>5</v>
       </c>
       <c r="C136">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="2:3">
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
       <c r="B137">
         <v>5</v>
       </c>
       <c r="C137">
         <v>15</v>
       </c>
-    </row>
-    <row r="138" spans="2:3">
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
       <c r="B138">
         <v>5</v>
       </c>
       <c r="C138">
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="2:3">
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
       <c r="B139">
         <v>5</v>
       </c>
       <c r="C139">
         <v>17</v>
       </c>
-    </row>
-    <row r="140" spans="2:3">
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
       <c r="B140">
         <v>5</v>
       </c>
       <c r="C140">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="2:3">
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
       <c r="B141">
         <v>5</v>
       </c>
       <c r="C141">
         <v>19</v>
       </c>
-    </row>
-    <row r="142" spans="2:3">
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
       <c r="B142">
         <v>5</v>
       </c>
       <c r="C142">
         <v>20</v>
       </c>
-    </row>
-    <row r="143" spans="2:3">
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
       <c r="B143">
         <v>5</v>
       </c>
       <c r="C143">
         <v>21</v>
       </c>
-    </row>
-    <row r="144" spans="2:3">
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
       <c r="B144">
         <v>5</v>
       </c>
       <c r="C144">
         <v>22</v>
       </c>
-    </row>
-    <row r="145" spans="2:3">
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
       <c r="B145">
         <v>5</v>
       </c>
       <c r="C145">
         <v>23</v>
       </c>
-    </row>
-    <row r="146" spans="2:3">
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
       <c r="B146">
         <v>6</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="2:3">
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
       <c r="B147">
         <v>6</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:3">
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
       <c r="B148">
         <v>6</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="2:3">
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
       <c r="B149">
         <v>6</v>
       </c>
       <c r="C149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="2:3">
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
       <c r="B150">
         <v>6</v>
       </c>
       <c r="C150">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="2:3">
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
       <c r="B151">
         <v>6</v>
       </c>
       <c r="C151">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="2:3">
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
       <c r="B152">
         <v>6</v>
       </c>
       <c r="C152">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="2:3">
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
       <c r="B153">
         <v>6</v>
       </c>
       <c r="C153">
         <v>7</v>
       </c>
-    </row>
-    <row r="154" spans="2:3">
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
       <c r="B154">
         <v>6</v>
       </c>
       <c r="C154">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="2:3">
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
       <c r="B155">
         <v>6</v>
       </c>
       <c r="C155">
         <v>9</v>
       </c>
-    </row>
-    <row r="156" spans="2:3">
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
       <c r="B156">
         <v>6</v>
       </c>
       <c r="C156">
         <v>10</v>
       </c>
-    </row>
-    <row r="157" spans="2:3">
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
       <c r="B157">
         <v>6</v>
       </c>
       <c r="C157">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="2:3">
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
       <c r="B158">
         <v>6</v>
       </c>
       <c r="C158">
         <v>12</v>
       </c>
-    </row>
-    <row r="159" spans="2:3">
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
       <c r="B159">
         <v>6</v>
       </c>
       <c r="C159">
         <v>13</v>
       </c>
-    </row>
-    <row r="160" spans="2:3">
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
       <c r="B160">
         <v>6</v>
       </c>
       <c r="C160">
         <v>14</v>
       </c>
-    </row>
-    <row r="161" spans="2:3">
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
       <c r="B161">
         <v>6</v>
       </c>
       <c r="C161">
         <v>15</v>
       </c>
-    </row>
-    <row r="162" spans="2:3">
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
       <c r="B162">
         <v>6</v>
       </c>
       <c r="C162">
         <v>16</v>
       </c>
-    </row>
-    <row r="163" spans="2:3">
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
       <c r="B163">
         <v>6</v>
       </c>
       <c r="C163">
         <v>17</v>
       </c>
-    </row>
-    <row r="164" spans="2:3">
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
       <c r="B164">
         <v>6</v>
       </c>
       <c r="C164">
         <v>18</v>
       </c>
-    </row>
-    <row r="165" spans="2:3">
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5">
       <c r="B165">
         <v>6</v>
       </c>
       <c r="C165">
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="2:3">
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
       <c r="B166">
         <v>6</v>
       </c>
       <c r="C166">
         <v>20</v>
       </c>
-    </row>
-    <row r="167" spans="2:3">
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
       <c r="B167">
         <v>6</v>
       </c>
       <c r="C167">
         <v>21</v>
       </c>
-    </row>
-    <row r="168" spans="2:3">
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
       <c r="B168">
         <v>6</v>
       </c>
       <c r="C168">
         <v>22</v>
       </c>
-    </row>
-    <row r="169" spans="2:3">
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
       <c r="B169">
         <v>6</v>
       </c>
       <c r="C169">
         <v>23</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
